--- a/docs/股票数据/股票数据检查结果.xlsx
+++ b/docs/股票数据/股票数据检查结果.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据问题" sheetId="1" r:id="rId1"/>
+    <sheet name="数据修复历史" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="137">
   <si>
     <t>问题编号</t>
   </si>
@@ -437,12 +438,391 @@
 2. 9点31之前缺失的价格都用昨天的收盘价补齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>同一个时间点有两条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于为了生成收盘集合竞价记录保存了15：00：00之后的数据导致的错误:
+2023-01-18 10:20:41.126 | DEBUG    | __main__:validate:257 -               time  accumulated_volume_change
+4451  15:00:08.967                -25326282.0
+2023-01-18 10:20:41.141 | DEBUG    | __main__:validate:282 -               time  open  close  high  low
+4451  15:00:08.967   0.0    0.0   0.0  0.0
+4452  15:00:13.580   0.0    0.0   0.0  0.0
+4453  15:00:22.775   0.0    0.0   0.0  0.0
+4455  15:00:28.642   0.0    0.0   0.0  0.0
+4456  15:00:37.996   0.0    0.0   0.0  0.0
+4457  15:00:46.499   0.0    0.0   0.0  0.0
+4458  15:00:52.118   0.0    0.0   0.0  0.0
+4459  15:00:54.697   0.0    0.0   0.0  0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未生成
+已生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描一遍股票数据，看这类数据的数量，扫描条件：
+股票代码，日期，时间，成交量，成交额，成交笔数，当日累计成交量
+根据结果考虑修复方案：
+1. 删除大于15：00：00，成交笔数为0的数据
+2. 检查已生成数据是否需要修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描数据，查看数据数量，扫描条件：
+同一个时间点有多条数据，且成交量都不为0
+只要让校验通过，不做其它处理,
+处理方法：
+1. price取后者
+2. volume累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30之后有成交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多余删除了集合竞价时的数据</t>
+  </si>
+  <si>
+    <t>已生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果11：30的数据已存在，如何修复？
+20220812  600143和通达信也对不上？
+最后的结论是直接删除不然会有未来数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_number插值为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘数据缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失包含15:00:00和11:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据全天的成交额和成交量缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230216-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoVolumeDataFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseRecordMissingFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroTransactionNumberFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230214-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230209-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosingDuplicateDataFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionBiddingDuplicateDataFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230208-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230207-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221219-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描是否遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有补齐时未清零的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221231-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatRecordValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotClearedAfterCompletionValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230105-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|   725067 |      2 |
+|    22276 |      1 |
+|   363385 |      0 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失收盘集合竞价数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosingCallAuctionValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样检查不合理 都应该按已生成数据来检查，
+最终结果是看15：00的记录有没有生成，
+后续有专门的检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|   701485 |      0 |
+|   408444 |      2 |
+|       17 |      1 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionBiddingDuplicateDataValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosingDuplicateDataFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘计算问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘计算问题，15：00上有多条记录，结果保留了
+没有成交量的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosingDuplicateDataValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|  1109877 |      0 |
+|       67 |      2 |
+|        2 |      1 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据生成逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_number插值为0，影响了部分因子的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|   870196 |      0 |
+|   236887 |      2 |
+|     1386 |      1 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：30 15：00的数据缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseRecordMissingValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为目前不跨天，所以暂时没啥影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天数据没有成交量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到volume, amount的因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotClearedAfterCompletionFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查集合竞价时段有同一个时间的重复数据
+这些数据被以前的算法给删掉了需要补回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatRecordFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖其它修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|  1092844 |      0 |
+|    15625 |      2 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|   673791 |      0 |
+|   434678 |      2 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成
+StockTickDataEnricher 插值部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成
+StockTickDataCleaner 删除重复数据部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroTransactionNumberValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于20230216-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230216-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|  1078321 |      2 |
+|    30148 |      0 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|  1106900 |      0 |
+|     1573 |      2 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoVolumeDataValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230214-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseRecordMissingFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +862,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -520,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +963,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,6 +1116,234 @@
         <a:xfrm>
           <a:off x="7477125" y="14973300"/>
           <a:ext cx="6631002" cy="2637770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6686549</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2247901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="20050126"/>
+          <a:ext cx="6686549" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6172200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1067732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="23945850"/>
+          <a:ext cx="6105525" cy="982007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1255574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6591301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>609505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486651" y="25115699"/>
+          <a:ext cx="6572250" cy="620756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6270228</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1133235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496176" y="25774650"/>
+          <a:ext cx="6241652" cy="1114185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3590926</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1219463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172326" y="27084334"/>
+          <a:ext cx="8191500" cy="1157554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5600701</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2971308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543801" y="28443746"/>
+          <a:ext cx="5524500" cy="2816812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,10 +1618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -956,7 +1631,7 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="87.625" customWidth="1"/>
+    <col min="5" max="5" width="99.625" customWidth="1"/>
     <col min="7" max="7" width="43.25" customWidth="1"/>
     <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
@@ -1189,10 +1864,503 @@
         <v>41</v>
       </c>
     </row>
+    <row r="13" spans="1:9" ht="300" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44399</v>
+      </c>
+      <c r="C13">
+        <v>688599</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="99.95" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44411</v>
+      </c>
+      <c r="C14">
+        <v>600787</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="50.1" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43216</v>
+      </c>
+      <c r="C15">
+        <v>300291</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="99.95" customHeight="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43412</v>
+      </c>
+      <c r="C16">
+        <v>600369</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="99.95" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43412</v>
+      </c>
+      <c r="C17">
+        <v>600369</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="249.95" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43073</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42748</v>
+      </c>
+      <c r="C19">
+        <v>600000</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44714</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2459</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="13" width="37.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="13" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="42.75">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1108469</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="42.75">
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1108469</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="57">
+      <c r="A4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1110728</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.75">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>1109946</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>1109946</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="42.75">
+      <c r="A7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1108469</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42.75">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8">
+        <v>1108469</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="28.5">
+      <c r="A9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1108469</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>